--- a/mbs-perturbation/bloated/decisionTree/nearmiss/bloated-decisionTree-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/decisionTree/nearmiss/bloated-decisionTree-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7485207100591716</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6597633136094674</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4733727810650887</v>
+        <v>0.6893939393939393</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6955128205128205</v>
+        <v>0.7234848484848485</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6204545454545455</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3560606060606061</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4141330457119931</v>
+        <v>0.3483405483405483</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6731262327416173</v>
+        <v>0.5734848484848485</v>
       </c>
     </row>
   </sheetData>
